--- a/HIS_WebApi/excel_emg_tradding.xlsx
+++ b/HIS_WebApi/excel_emg_tradding.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\source\repos\inventorySystem\HIS_WebApi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5712E802-BE59-4A4B-B9E5-F18029A155F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE7903E-09B7-48F8-9098-CEE6BF735E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0589F860-228F-4E9C-9EDF-967586CF270A}"/>
+    <workbookView xWindow="30612" yWindow="4200" windowWidth="23256" windowHeight="13896" xr2:uid="{0589F860-228F-4E9C-9EDF-967586CF270A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>藥碼</t>
   </si>
@@ -58,9 +58,6 @@
     <t>TAB</t>
   </si>
   <si>
-    <t>類別</t>
-  </si>
-  <si>
     <t>總消耗量</t>
   </si>
   <si>
@@ -125,15 +122,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>鴻森智能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIT01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供貨廠商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供貨商證字號</t>
+  </si>
+  <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鴻森智能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RIT01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -226,22 +230,139 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -253,8 +374,60 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -264,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -274,16 +447,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,13 +507,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -319,9 +537,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +577,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -465,7 +683,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,7 +825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,181 +833,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF86550-6363-426B-ACC7-02A0BC37DB28}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="40.5" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3">
+        <v>728</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="21">
+        <v>123</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="21">
+        <v>123</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="14">
+        <v>123</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2">
-        <v>728</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="7">
-        <v>123456</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="1" t="s">
+      <c r="J6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="L6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="I3:K3"/>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I4:L4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>